--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp7-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp7-Eng.xlsx
@@ -540,10 +540,10 @@
         <v>5.005563</v>
       </c>
       <c r="I2">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J2">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N2">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O2">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P2">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q2">
-        <v>285.20576727888</v>
+        <v>225.4033139040586</v>
       </c>
       <c r="R2">
-        <v>2566.85190550992</v>
+        <v>2028.629825136528</v>
       </c>
       <c r="S2">
-        <v>0.7439030115139932</v>
+        <v>0.6570225317286369</v>
       </c>
       <c r="T2">
-        <v>0.7439030115139932</v>
+        <v>0.657022531728637</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>5.005563</v>
       </c>
       <c r="I3">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J3">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +620,10 @@
         <v>120.936512</v>
       </c>
       <c r="O3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P3">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q3">
         <v>67.26170331291733</v>
@@ -632,10 +632,10 @@
         <v>605.355329816256</v>
       </c>
       <c r="S3">
-        <v>0.1754388914762496</v>
+        <v>0.1960594715029061</v>
       </c>
       <c r="T3">
-        <v>0.1754388914762496</v>
+        <v>0.1960594715029062</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>5.005563</v>
       </c>
       <c r="I4">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="J4">
-        <v>0.9677024783929865</v>
+        <v>0.9223046214701632</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N4">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P4">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q4">
-        <v>18.541012471124</v>
+        <v>23.74805549978434</v>
       </c>
       <c r="R4">
-        <v>166.869112240116</v>
+        <v>213.732499498059</v>
       </c>
       <c r="S4">
-        <v>0.0483605754027437</v>
+        <v>0.06922261823862003</v>
       </c>
       <c r="T4">
-        <v>0.0483605754027437</v>
+        <v>0.06922261823862004</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,22 +714,22 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H5">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I5">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J5">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>170.93328</v>
+        <v>135.0916853333333</v>
       </c>
       <c r="N5">
-        <v>512.79984</v>
+        <v>405.2750559999999</v>
       </c>
       <c r="O5">
-        <v>0.7687311215213114</v>
+        <v>0.7123704212620513</v>
       </c>
       <c r="P5">
-        <v>0.7687311215213115</v>
+        <v>0.7123704212620514</v>
       </c>
       <c r="Q5">
-        <v>9.51887551888</v>
+        <v>18.98808201539733</v>
       </c>
       <c r="R5">
-        <v>85.66987966992001</v>
+        <v>170.892738138576</v>
       </c>
       <c r="S5">
-        <v>0.02482811000731831</v>
+        <v>0.05534788953341433</v>
       </c>
       <c r="T5">
-        <v>0.02482811000731831</v>
+        <v>0.05534788953341434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,22 +776,22 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H6">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I6">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J6">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>120.936512</v>
       </c>
       <c r="O6">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="P6">
-        <v>0.1812942463137967</v>
+        <v>0.2125756143240238</v>
       </c>
       <c r="Q6">
-        <v>2.244890722695111</v>
+        <v>5.666157772394667</v>
       </c>
       <c r="R6">
-        <v>20.204016504256</v>
+        <v>50.995419951552</v>
       </c>
       <c r="S6">
-        <v>0.005855354837547084</v>
+        <v>0.01651614282111761</v>
       </c>
       <c r="T6">
-        <v>0.005855354837547084</v>
+        <v>0.01651614282111762</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,22 +838,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.05568766666666667</v>
+        <v>0.140557</v>
       </c>
       <c r="H7">
-        <v>0.167063</v>
+        <v>0.421671</v>
       </c>
       <c r="I7">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="J7">
-        <v>0.03229752160701354</v>
+        <v>0.07769537852983674</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.112244</v>
+        <v>14.23299766666667</v>
       </c>
       <c r="N7">
-        <v>33.336732</v>
+        <v>42.698993</v>
       </c>
       <c r="O7">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392481</v>
       </c>
       <c r="P7">
-        <v>0.04997463216489184</v>
+        <v>0.07505396441392483</v>
       </c>
       <c r="Q7">
-        <v>0.6188149397906666</v>
+        <v>2.000547453033667</v>
       </c>
       <c r="R7">
-        <v>5.569334458116</v>
+        <v>18.004927077303</v>
       </c>
       <c r="S7">
-        <v>0.001614056762148148</v>
+        <v>0.005831346175304785</v>
       </c>
       <c r="T7">
-        <v>0.001614056762148148</v>
+        <v>0.005831346175304786</v>
       </c>
     </row>
   </sheetData>
